--- a/Code/Results/Cases/Case_4_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.39190603359873</v>
+        <v>1.095739218761906</v>
       </c>
       <c r="C2">
-        <v>0.1208378844152236</v>
+        <v>0.07558923879656732</v>
       </c>
       <c r="D2">
-        <v>0.1907399005272339</v>
+        <v>0.07706284401608343</v>
       </c>
       <c r="E2">
-        <v>0.03764231691106623</v>
+        <v>0.08671413816489881</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.496973265805991</v>
+        <v>2.035918829824624</v>
       </c>
       <c r="H2">
-        <v>0.9574276194603328</v>
+        <v>1.711275127132865</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.21071551087752</v>
+        <v>0.6688731168793822</v>
       </c>
       <c r="L2">
-        <v>0.1471897137432876</v>
+        <v>0.1945722440733917</v>
       </c>
       <c r="M2">
-        <v>0.2725662991808342</v>
+        <v>0.2526993953038961</v>
       </c>
       <c r="N2">
-        <v>1.756785715989594</v>
+        <v>3.12931536791254</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.221215350478673</v>
+        <v>1.056663637891035</v>
       </c>
       <c r="C3">
-        <v>0.1095752625818207</v>
+        <v>0.07186293479472283</v>
       </c>
       <c r="D3">
-        <v>0.1651754131099921</v>
+        <v>0.07011787175080997</v>
       </c>
       <c r="E3">
-        <v>0.03703056056072462</v>
+        <v>0.08689282353686956</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.414847326860084</v>
+        <v>2.02310137968297</v>
       </c>
       <c r="H3">
-        <v>0.9270882896600199</v>
+        <v>1.710612454461014</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.051010050160812</v>
+        <v>0.6291726043023687</v>
       </c>
       <c r="L3">
-        <v>0.1337513405813837</v>
+        <v>0.1921788495076839</v>
       </c>
       <c r="M3">
-        <v>0.2410886901871763</v>
+        <v>0.2458665461190854</v>
       </c>
       <c r="N3">
-        <v>1.783564212354548</v>
+        <v>3.142365121340802</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.117914205912768</v>
+        <v>1.033301575326817</v>
       </c>
       <c r="C4">
-        <v>0.1026808806820299</v>
+        <v>0.0695428988211404</v>
       </c>
       <c r="D4">
-        <v>0.1496754291700597</v>
+        <v>0.06589112698657118</v>
       </c>
       <c r="E4">
-        <v>0.0366906766147892</v>
+        <v>0.08702599840952807</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.36678483918773</v>
+        <v>2.016158212270881</v>
       </c>
       <c r="H4">
-        <v>0.9097800574781019</v>
+        <v>1.710835016779072</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9541178253839178</v>
+        <v>0.6051830601983568</v>
       </c>
       <c r="L4">
-        <v>0.1256869390521302</v>
+        <v>0.1908043155708938</v>
       </c>
       <c r="M4">
-        <v>0.2220751465586588</v>
+        <v>0.241812033927733</v>
       </c>
       <c r="N4">
-        <v>1.80180757410578</v>
+        <v>3.151142766327069</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.076157536429491</v>
+        <v>1.023940025597938</v>
       </c>
       <c r="C5">
-        <v>0.09987406678672528</v>
+        <v>0.06858935278481226</v>
       </c>
       <c r="D5">
-        <v>0.1434023399041138</v>
+        <v>0.06417806874355847</v>
       </c>
       <c r="E5">
-        <v>0.03656085547304855</v>
+        <v>0.08708617955949016</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.347753790016128</v>
+        <v>2.013561672006844</v>
       </c>
       <c r="H5">
-        <v>0.9030407665520102</v>
+        <v>1.711084034860193</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9148913181015246</v>
+        <v>0.5955043531709521</v>
       </c>
       <c r="L5">
-        <v>0.12244410751007</v>
+        <v>0.1902681017430865</v>
       </c>
       <c r="M5">
-        <v>0.2143985145987628</v>
+        <v>0.2401952474411111</v>
       </c>
       <c r="N5">
-        <v>1.809678082816646</v>
+        <v>3.154912024836065</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.069243285910744</v>
+        <v>1.022395135446345</v>
       </c>
       <c r="C6">
-        <v>0.09940808931315814</v>
+        <v>0.06843052580824605</v>
       </c>
       <c r="D6">
-        <v>0.142363138574197</v>
+        <v>0.06389418135618996</v>
       </c>
       <c r="E6">
-        <v>0.03653981479285662</v>
+        <v>0.08709652996929762</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.344626102148865</v>
+        <v>2.013144576884642</v>
       </c>
       <c r="H6">
-        <v>0.9019401691999036</v>
+        <v>1.71113494771518</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9083923591708469</v>
+        <v>0.5939030830768957</v>
       </c>
       <c r="L6">
-        <v>0.1219081655368086</v>
+        <v>0.1901805093379778</v>
       </c>
       <c r="M6">
-        <v>0.2131279297874151</v>
+        <v>0.2399289239970344</v>
       </c>
       <c r="N6">
-        <v>1.811010850707774</v>
+        <v>3.155549519335835</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.117349736096799</v>
+        <v>1.033174679520243</v>
       </c>
       <c r="C7">
-        <v>0.1026430193166945</v>
+        <v>0.06953007187569682</v>
       </c>
       <c r="D7">
-        <v>0.1495906607553508</v>
+        <v>0.06586798619724732</v>
       </c>
       <c r="E7">
-        <v>0.03668889102493189</v>
+        <v>0.08702678608306869</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.366525983712208</v>
+        <v>2.016122251854725</v>
       </c>
       <c r="H7">
-        <v>0.9096879208414634</v>
+        <v>1.71083773403403</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.95358780449439</v>
+        <v>0.6050521361254084</v>
       </c>
       <c r="L7">
-        <v>0.1256430335201983</v>
+        <v>0.1907969871170252</v>
       </c>
       <c r="M7">
-        <v>0.2219713365585783</v>
+        <v>0.2417900857578346</v>
       </c>
       <c r="N7">
-        <v>1.801911973746826</v>
+        <v>3.151192821381159</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.332715685024596</v>
+        <v>1.082135162764786</v>
       </c>
       <c r="C8">
-        <v>0.1169485945395508</v>
+        <v>0.07431103544578832</v>
       </c>
       <c r="D8">
-        <v>0.1818805870941702</v>
+        <v>0.07466040038553956</v>
       </c>
       <c r="E8">
-        <v>0.03742377841693312</v>
+        <v>0.08677088644627773</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.468141210995441</v>
+        <v>2.031306889474948</v>
       </c>
       <c r="H8">
-        <v>0.9466813732506552</v>
+        <v>1.710916017433817</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.155384462141967</v>
+        <v>0.655104087280705</v>
       </c>
       <c r="L8">
-        <v>0.1425152119111601</v>
+        <v>0.1937272946944262</v>
       </c>
       <c r="M8">
-        <v>0.2616430887455294</v>
+        <v>0.2503142053205387</v>
       </c>
       <c r="N8">
-        <v>1.765634662789466</v>
+        <v>3.133656089177492</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.76887518356807</v>
+        <v>1.183149938271299</v>
       </c>
       <c r="C9">
-        <v>0.1452937490119126</v>
+        <v>0.08343455523466048</v>
       </c>
       <c r="D9">
-        <v>0.2470639663552276</v>
+        <v>0.09220318392999616</v>
       </c>
       <c r="E9">
-        <v>0.03916313600656096</v>
+        <v>0.08645474217855487</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.688083288230843</v>
+        <v>2.068450366553435</v>
       </c>
       <c r="H9">
-        <v>1.030581038965352</v>
+        <v>1.716063795323691</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.562123719336739</v>
+        <v>0.7563313214446623</v>
       </c>
       <c r="L9">
-        <v>0.1772546789434131</v>
+        <v>0.2002269493007773</v>
       </c>
       <c r="M9">
-        <v>0.3422904922982468</v>
+        <v>0.2681475981416099</v>
       </c>
       <c r="N9">
-        <v>1.709601091936605</v>
+        <v>3.105340874444664</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.100634591117284</v>
+        <v>1.260426420810063</v>
       </c>
       <c r="C10">
-        <v>0.1664900037745127</v>
+        <v>0.0899880255726373</v>
       </c>
       <c r="D10">
-        <v>0.2965475926958447</v>
+        <v>0.1052812942930927</v>
       </c>
       <c r="E10">
-        <v>0.04064500816683392</v>
+        <v>0.08633506938295454</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.865194848980508</v>
+        <v>2.100253778939958</v>
       </c>
       <c r="H10">
-        <v>1.100479149824025</v>
+        <v>1.722892998031426</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.870337648442188</v>
+        <v>0.83259631040562</v>
       </c>
       <c r="L10">
-        <v>0.2040444893316646</v>
+        <v>0.2054614862379651</v>
       </c>
       <c r="M10">
-        <v>0.4038286606297277</v>
+        <v>0.2819326337891326</v>
       </c>
       <c r="N10">
-        <v>1.678872290654112</v>
+        <v>3.088246823961711</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.254725352322055</v>
+        <v>1.296249116224203</v>
       </c>
       <c r="C11">
-        <v>0.1762613481687652</v>
+        <v>0.09293777976556328</v>
       </c>
       <c r="D11">
-        <v>0.3195170769502624</v>
+        <v>0.1112733680320588</v>
       </c>
       <c r="E11">
-        <v>0.04136883285935333</v>
+        <v>0.08630495600524846</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.949855400801681</v>
+        <v>2.115707617002755</v>
       </c>
       <c r="H11">
-        <v>1.134399319314213</v>
+        <v>1.726662198922895</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.013245624582936</v>
+        <v>0.8677068932014436</v>
       </c>
       <c r="L11">
-        <v>0.216570292656229</v>
+        <v>0.2079425903959731</v>
       </c>
       <c r="M11">
-        <v>0.4324550233637723</v>
+        <v>0.2883525281204129</v>
       </c>
       <c r="N11">
-        <v>1.6674637946725</v>
+        <v>3.081277143772596</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.313596341092079</v>
+        <v>1.309910514950332</v>
       </c>
       <c r="C12">
-        <v>0.1799845105874454</v>
+        <v>0.09405031185993096</v>
       </c>
       <c r="D12">
-        <v>0.3282912805021425</v>
+        <v>0.1135486423922032</v>
       </c>
       <c r="E12">
-        <v>0.04165056576929693</v>
+        <v>0.08629704030947494</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.982568663233195</v>
+        <v>2.121701750912564</v>
       </c>
       <c r="H12">
-        <v>1.147579644646385</v>
+        <v>1.728184794927301</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.067809468952049</v>
+        <v>0.88106254120828</v>
       </c>
       <c r="L12">
-        <v>0.221368012185593</v>
+        <v>0.2088964723412232</v>
       </c>
       <c r="M12">
-        <v>0.4433983014828868</v>
+        <v>0.2908050024959792</v>
       </c>
       <c r="N12">
-        <v>1.66354164642074</v>
+        <v>3.07875400860371</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.300893200501775</v>
+        <v>1.306964015044457</v>
       </c>
       <c r="C13">
-        <v>0.1791815643741188</v>
+        <v>0.09381090648082591</v>
       </c>
       <c r="D13">
-        <v>0.3263980400793685</v>
+        <v>0.1130583444559079</v>
       </c>
       <c r="E13">
-        <v>0.04158954170198648</v>
+        <v>0.08629859015148078</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.975493067729047</v>
+        <v>2.120404482587929</v>
       </c>
       <c r="H13">
-        <v>1.14472559251476</v>
+        <v>1.727852638841654</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.056037249334594</v>
+        <v>0.8781834929611705</v>
       </c>
       <c r="L13">
-        <v>0.2203322180766492</v>
+        <v>0.2086903992945111</v>
       </c>
       <c r="M13">
-        <v>0.441036679504542</v>
+        <v>0.2902758669391261</v>
       </c>
       <c r="N13">
-        <v>1.664368167444607</v>
+        <v>3.079292243344696</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.25955789052432</v>
+        <v>1.297371121940444</v>
       </c>
       <c r="C14">
-        <v>0.1765671678122942</v>
+        <v>0.09302939788236131</v>
       </c>
       <c r="D14">
-        <v>0.32023734820757</v>
+        <v>0.1114604315285419</v>
       </c>
       <c r="E14">
-        <v>0.04139185520955735</v>
+        <v>0.08630423493959682</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.952533231035943</v>
+        <v>2.116197908526601</v>
       </c>
       <c r="H14">
-        <v>1.135476765489699</v>
+        <v>1.726785554187757</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.017725291494258</v>
+        <v>0.8688044670737156</v>
       </c>
       <c r="L14">
-        <v>0.2169638776074976</v>
+        <v>0.2080207795344364</v>
       </c>
       <c r="M14">
-        <v>0.4333531934784958</v>
+        <v>0.288553865939015</v>
       </c>
       <c r="N14">
-        <v>1.667132967882125</v>
+        <v>3.081067235549909</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.234308564888181</v>
+        <v>1.291507712462987</v>
       </c>
       <c r="C15">
-        <v>0.1749689039659472</v>
+        <v>0.09255011981665007</v>
       </c>
       <c r="D15">
-        <v>0.3164739814752267</v>
+        <v>0.1104824735707979</v>
       </c>
       <c r="E15">
-        <v>0.041271776179995</v>
+        <v>0.08630814641165152</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.93855691791407</v>
+        <v>2.113639774294455</v>
       </c>
       <c r="H15">
-        <v>1.129856228673503</v>
+        <v>1.72614434270082</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.994318275879749</v>
+        <v>0.8630673618649496</v>
       </c>
       <c r="L15">
-        <v>0.2149079442235688</v>
+        <v>0.2076124851565453</v>
       </c>
       <c r="M15">
-        <v>0.4286606430885911</v>
+        <v>0.2875018766602224</v>
       </c>
       <c r="N15">
-        <v>1.668879210543807</v>
+        <v>3.082169598067665</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.090633562243113</v>
+        <v>1.258098780327884</v>
       </c>
       <c r="C16">
-        <v>0.1658543869855293</v>
+        <v>0.08979462331421928</v>
       </c>
       <c r="D16">
-        <v>0.2950565671729777</v>
+        <v>0.1048905636366868</v>
       </c>
       <c r="E16">
-        <v>0.04059874559751542</v>
+        <v>0.08633752597095068</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.859749897932318</v>
+        <v>2.099263704367104</v>
       </c>
       <c r="H16">
-        <v>1.098307625493732</v>
+        <v>1.722660004762162</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.861057559781784</v>
+        <v>0.8303101501222443</v>
       </c>
       <c r="L16">
-        <v>0.2032331973967558</v>
+        <v>0.2053013483399155</v>
       </c>
       <c r="M16">
-        <v>0.4019715992569104</v>
+        <v>0.2815160746890086</v>
       </c>
       <c r="N16">
-        <v>1.679671947598663</v>
+        <v>3.088718551099007</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.003349693275993</v>
+        <v>1.237774807640847</v>
       </c>
       <c r="C17">
-        <v>0.1602989776264536</v>
+        <v>0.08809619317341344</v>
       </c>
       <c r="D17">
-        <v>0.2820421959985424</v>
+        <v>0.1014711029877731</v>
       </c>
       <c r="E17">
-        <v>0.04019892971626859</v>
+        <v>0.0863617724375203</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.812497171640416</v>
+        <v>2.090697259430073</v>
       </c>
       <c r="H17">
-        <v>1.079517957895916</v>
+        <v>1.720692177590195</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.780038496468791</v>
+        <v>0.810321552447391</v>
       </c>
       <c r="L17">
-        <v>0.1961618521485491</v>
+        <v>0.2039091084536011</v>
       </c>
       <c r="M17">
-        <v>0.3857690000712353</v>
+        <v>0.2778821244912777</v>
       </c>
       <c r="N17">
-        <v>1.686970589539413</v>
+        <v>3.092942794939574</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.953440685413739</v>
+        <v>1.226147994305848</v>
       </c>
       <c r="C18">
-        <v>0.1571155116221377</v>
+        <v>0.0871163378218256</v>
       </c>
       <c r="D18">
-        <v>0.2745992304073752</v>
+        <v>0.09950834263001695</v>
       </c>
       <c r="E18">
-        <v>0.03997361389505905</v>
+        <v>0.08637800870143408</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.785699484051264</v>
+        <v>2.085862886188579</v>
       </c>
       <c r="H18">
-        <v>1.068908510810246</v>
+        <v>1.719622698388775</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.733688725220588</v>
+        <v>0.7988639118628669</v>
       </c>
       <c r="L18">
-        <v>0.192126136049481</v>
+        <v>0.2031177320268682</v>
       </c>
       <c r="M18">
-        <v>0.3765084203340123</v>
+        <v>0.2758059998415874</v>
       </c>
       <c r="N18">
-        <v>1.691408636857503</v>
+        <v>3.095448369007741</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.936591054416624</v>
+        <v>1.22222217862722</v>
       </c>
       <c r="C19">
-        <v>0.1560395544288866</v>
+        <v>0.08678406526284732</v>
       </c>
       <c r="D19">
-        <v>0.272086185386982</v>
+        <v>0.09884447497131532</v>
       </c>
       <c r="E19">
-        <v>0.03989810990291431</v>
+        <v>0.08638389971079441</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.776689751721307</v>
+        <v>2.084241984096593</v>
       </c>
       <c r="H19">
-        <v>1.065349445764411</v>
+        <v>1.719271301885954</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.718036748953011</v>
+        <v>0.7949912957532774</v>
       </c>
       <c r="L19">
-        <v>0.1907649619702454</v>
+        <v>0.2028514012403804</v>
       </c>
       <c r="M19">
-        <v>0.3733826809641485</v>
+        <v>0.275105469794596</v>
       </c>
       <c r="N19">
-        <v>1.692951692918626</v>
+        <v>3.096309744590968</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.012610299343351</v>
+        <v>1.239931809989685</v>
       </c>
       <c r="C20">
-        <v>0.1608891026338881</v>
+        <v>0.08827730030805014</v>
       </c>
       <c r="D20">
-        <v>0.2834231231209259</v>
+        <v>0.1018346936531742</v>
       </c>
       <c r="E20">
-        <v>0.04024100638313222</v>
+        <v>0.08635895439499208</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.817487433809276</v>
+        <v>2.091599563709281</v>
       </c>
       <c r="H20">
-        <v>1.081497461498799</v>
+        <v>1.720895201780252</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.788636801222992</v>
+        <v>0.8124453080608873</v>
       </c>
       <c r="L20">
-        <v>0.1969113053874736</v>
+        <v>0.2040563417386352</v>
       </c>
       <c r="M20">
-        <v>0.3874876318632658</v>
+        <v>0.2782675131175907</v>
       </c>
       <c r="N20">
-        <v>1.686168594142799</v>
+        <v>3.092485260374062</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.271684415176992</v>
+        <v>1.300186179359685</v>
       </c>
       <c r="C21">
-        <v>0.1773344187381554</v>
+        <v>0.09325906699849895</v>
       </c>
       <c r="D21">
-        <v>0.3220447403607523</v>
+        <v>0.1119296084189898</v>
       </c>
       <c r="E21">
-        <v>0.04144970918206248</v>
+        <v>0.08630248235988525</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.95925878238674</v>
+        <v>2.117429622538793</v>
       </c>
       <c r="H21">
-        <v>1.138184009871338</v>
+        <v>1.727096396845269</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.028965789649135</v>
+        <v>0.8715576848031787</v>
       </c>
       <c r="L21">
-        <v>0.217951714320094</v>
+        <v>0.2082170740344225</v>
       </c>
       <c r="M21">
-        <v>0.4356071189329569</v>
+        <v>0.2890590788122722</v>
       </c>
       <c r="N21">
-        <v>1.666309836939988</v>
+        <v>3.080542724247678</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.444070465238667</v>
+        <v>1.340126112237556</v>
       </c>
       <c r="C22">
-        <v>0.1882186371533265</v>
+        <v>0.09648887302802223</v>
       </c>
       <c r="D22">
-        <v>0.3477355125030357</v>
+        <v>0.1185634181833564</v>
       </c>
       <c r="E22">
-        <v>0.04228443388953451</v>
+        <v>0.08628589812550125</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.055762674156028</v>
+        <v>2.135139460453075</v>
       </c>
       <c r="H22">
-        <v>1.177203638163547</v>
+        <v>1.731704614183855</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.188676017584072</v>
+        <v>0.9105409711987988</v>
       </c>
       <c r="L22">
-        <v>0.2320233757974677</v>
+        <v>0.2110199373043997</v>
       </c>
       <c r="M22">
-        <v>0.4676634010989673</v>
+        <v>0.2962367123270866</v>
       </c>
       <c r="N22">
-        <v>1.655666116853723</v>
+        <v>3.073414566391079</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.351761443967405</v>
+        <v>1.318758194851512</v>
       </c>
       <c r="C23">
-        <v>0.182395478279318</v>
+        <v>0.09476743428710677</v>
       </c>
       <c r="D23">
-        <v>0.3339791511296539</v>
+        <v>0.1150194986143447</v>
       </c>
       <c r="E23">
-        <v>0.0418346569022443</v>
+        <v>0.08629289329360113</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.003881198111685</v>
+        <v>2.125611497179676</v>
       </c>
       <c r="H23">
-        <v>1.156186963635378</v>
+        <v>1.729194302085091</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.103172811618663</v>
+        <v>0.8897028276914227</v>
       </c>
       <c r="L23">
-        <v>0.2244817040737104</v>
+        <v>0.2095163556248849</v>
       </c>
       <c r="M23">
-        <v>0.4504944564004276</v>
+        <v>0.2923944712845525</v>
       </c>
       <c r="N23">
-        <v>1.661123069856259</v>
+        <v>3.077157001002192</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.008422737976446</v>
+        <v>1.238956449460773</v>
       </c>
       <c r="C24">
-        <v>0.1606222750118036</v>
+        <v>0.08819543238527672</v>
       </c>
       <c r="D24">
-        <v>0.2827986847184718</v>
+        <v>0.1016703045613525</v>
       </c>
       <c r="E24">
-        <v>0.04022196940586653</v>
+        <v>0.08636022127760157</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.815230193276108</v>
+        <v>2.091191349771947</v>
       </c>
       <c r="H24">
-        <v>1.08060192906683</v>
+        <v>1.720803221867158</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.784748798261802</v>
+        <v>0.811485052027308</v>
       </c>
       <c r="L24">
-        <v>0.1965723855127237</v>
+        <v>0.2039897494087342</v>
       </c>
       <c r="M24">
-        <v>0.3867104695481203</v>
+        <v>0.2780932381696033</v>
       </c>
       <c r="N24">
-        <v>1.686530424721624</v>
+        <v>3.092691871886259</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.649118935145424</v>
+        <v>1.155286023230559</v>
       </c>
       <c r="C25">
-        <v>0.1375755086475863</v>
+        <v>0.08099295898439607</v>
       </c>
       <c r="D25">
-        <v>0.229185690129043</v>
+        <v>0.08742456461254733</v>
       </c>
       <c r="E25">
-        <v>0.03865848210812572</v>
+        <v>0.08652045156509658</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.626083648021222</v>
+        <v>2.0576110487454</v>
       </c>
       <c r="H25">
-        <v>1.006537405341106</v>
+        <v>1.714136268085753</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.450648821315525</v>
+        <v>0.7286155253617608</v>
       </c>
       <c r="L25">
-        <v>0.1676542840057564</v>
+        <v>0.1983879738994361</v>
       </c>
       <c r="M25">
-        <v>0.3201141096239368</v>
+        <v>0.2632033908119524</v>
       </c>
       <c r="N25">
-        <v>1.723022062943699</v>
+        <v>3.112349983198328</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.095739218761906</v>
+        <v>1.39190603359873</v>
       </c>
       <c r="C2">
-        <v>0.07558923879656732</v>
+        <v>0.1208378844154794</v>
       </c>
       <c r="D2">
-        <v>0.07706284401608343</v>
+        <v>0.1907399005274328</v>
       </c>
       <c r="E2">
-        <v>0.08671413816489881</v>
+        <v>0.037642316911084</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.035918829824624</v>
+        <v>1.496973265805991</v>
       </c>
       <c r="H2">
-        <v>1.711275127132865</v>
+        <v>0.9574276194603328</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6688731168793822</v>
+        <v>1.210715510877549</v>
       </c>
       <c r="L2">
-        <v>0.1945722440733917</v>
+        <v>0.1471897137433231</v>
       </c>
       <c r="M2">
-        <v>0.2526993953038961</v>
+        <v>0.2725662991808449</v>
       </c>
       <c r="N2">
-        <v>3.12931536791254</v>
+        <v>1.756785715989594</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.056663637891035</v>
+        <v>1.221215350478673</v>
       </c>
       <c r="C3">
-        <v>0.07186293479472283</v>
+        <v>0.1095752625820836</v>
       </c>
       <c r="D3">
-        <v>0.07011787175080997</v>
+        <v>0.1651754131101058</v>
       </c>
       <c r="E3">
-        <v>0.08689282353686956</v>
+        <v>0.03703056056073706</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.02310137968297</v>
+        <v>1.414847326859999</v>
       </c>
       <c r="H3">
-        <v>1.710612454461014</v>
+        <v>0.9270882896599772</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6291726043023687</v>
+        <v>1.051010050160812</v>
       </c>
       <c r="L3">
-        <v>0.1921788495076839</v>
+        <v>0.1337513405813908</v>
       </c>
       <c r="M3">
-        <v>0.2458665461190854</v>
+        <v>0.2410886901871869</v>
       </c>
       <c r="N3">
-        <v>3.142365121340802</v>
+        <v>1.783564212354577</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.033301575326817</v>
+        <v>1.11791420591274</v>
       </c>
       <c r="C4">
-        <v>0.0695428988211404</v>
+        <v>0.1026808806820227</v>
       </c>
       <c r="D4">
-        <v>0.06589112698657118</v>
+        <v>0.1496754291700881</v>
       </c>
       <c r="E4">
-        <v>0.08702599840952807</v>
+        <v>0.03669067661480696</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.016158212270881</v>
+        <v>1.366784839187645</v>
       </c>
       <c r="H4">
-        <v>1.710835016779072</v>
+        <v>0.9097800574779882</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6051830601983568</v>
+        <v>0.9541178253838609</v>
       </c>
       <c r="L4">
-        <v>0.1908043155708938</v>
+        <v>0.125686939052116</v>
       </c>
       <c r="M4">
-        <v>0.241812033927733</v>
+        <v>0.2220751465586375</v>
       </c>
       <c r="N4">
-        <v>3.151142766327069</v>
+        <v>1.801807574105808</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.023940025597938</v>
+        <v>1.076157536429548</v>
       </c>
       <c r="C5">
-        <v>0.06858935278481226</v>
+        <v>0.09987406678671107</v>
       </c>
       <c r="D5">
-        <v>0.06417806874355847</v>
+        <v>0.1434023399040001</v>
       </c>
       <c r="E5">
-        <v>0.08708617955949016</v>
+        <v>0.03656085547305032</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.013561672006844</v>
+        <v>1.347753790016199</v>
       </c>
       <c r="H5">
-        <v>1.711084034860193</v>
+        <v>0.9030407665520102</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5955043531709521</v>
+        <v>0.9148913181015814</v>
       </c>
       <c r="L5">
-        <v>0.1902681017430865</v>
+        <v>0.1224441075101126</v>
       </c>
       <c r="M5">
-        <v>0.2401952474411111</v>
+        <v>0.2143985145987628</v>
       </c>
       <c r="N5">
-        <v>3.154912024836065</v>
+        <v>1.809678082816589</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.022395135446345</v>
+        <v>1.069243285910716</v>
       </c>
       <c r="C6">
-        <v>0.06843052580824605</v>
+        <v>0.09940808931356315</v>
       </c>
       <c r="D6">
-        <v>0.06389418135618996</v>
+        <v>0.1423631385742397</v>
       </c>
       <c r="E6">
-        <v>0.08709652996929762</v>
+        <v>0.03653981479287793</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.013144576884642</v>
+        <v>1.344626102148879</v>
       </c>
       <c r="H6">
-        <v>1.71113494771518</v>
+        <v>0.9019401691999889</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5939030830768957</v>
+        <v>0.9083923591708469</v>
       </c>
       <c r="L6">
-        <v>0.1901805093379778</v>
+        <v>0.1219081655367944</v>
       </c>
       <c r="M6">
-        <v>0.2399289239970344</v>
+        <v>0.2131279297874045</v>
       </c>
       <c r="N6">
-        <v>3.155549519335835</v>
+        <v>1.811010850707689</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.033174679520243</v>
+        <v>1.117349736096827</v>
       </c>
       <c r="C7">
-        <v>0.06953007187569682</v>
+        <v>0.102643019316659</v>
       </c>
       <c r="D7">
-        <v>0.06586798619724732</v>
+        <v>0.149590660755166</v>
       </c>
       <c r="E7">
-        <v>0.08702678608306869</v>
+        <v>0.03668889102494077</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.016122251854725</v>
+        <v>1.366525983712208</v>
       </c>
       <c r="H7">
-        <v>1.71083773403403</v>
+        <v>0.9096879208414634</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6050521361254084</v>
+        <v>0.9535878044943615</v>
       </c>
       <c r="L7">
-        <v>0.1907969871170252</v>
+        <v>0.1256430335201131</v>
       </c>
       <c r="M7">
-        <v>0.2417900857578346</v>
+        <v>0.2219713365585747</v>
       </c>
       <c r="N7">
-        <v>3.151192821381159</v>
+        <v>1.80191197374684</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.082135162764786</v>
+        <v>1.332715685024652</v>
       </c>
       <c r="C8">
-        <v>0.07431103544578832</v>
+        <v>0.1169485945394371</v>
       </c>
       <c r="D8">
-        <v>0.07466040038553956</v>
+        <v>0.1818805870942555</v>
       </c>
       <c r="E8">
-        <v>0.08677088644627773</v>
+        <v>0.03742377841689759</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.031306889474948</v>
+        <v>1.468141210995512</v>
       </c>
       <c r="H8">
-        <v>1.710916017433817</v>
+        <v>0.9466813732505415</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.655104087280705</v>
+        <v>1.155384462141996</v>
       </c>
       <c r="L8">
-        <v>0.1937272946944262</v>
+        <v>0.1425152119110606</v>
       </c>
       <c r="M8">
-        <v>0.2503142053205387</v>
+        <v>0.2616430887455223</v>
       </c>
       <c r="N8">
-        <v>3.133656089177492</v>
+        <v>1.765634662789424</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.183149938271299</v>
+        <v>1.768875183567985</v>
       </c>
       <c r="C9">
-        <v>0.08343455523466048</v>
+        <v>0.1452937490119268</v>
       </c>
       <c r="D9">
-        <v>0.09220318392999616</v>
+        <v>0.247063966355114</v>
       </c>
       <c r="E9">
-        <v>0.08645474217855487</v>
+        <v>0.03916313600659649</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.068450366553435</v>
+        <v>1.688083288230786</v>
       </c>
       <c r="H9">
-        <v>1.716063795323691</v>
+        <v>1.030581038965465</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7563313214446623</v>
+        <v>1.562123719336824</v>
       </c>
       <c r="L9">
-        <v>0.2002269493007773</v>
+        <v>0.1772546789434557</v>
       </c>
       <c r="M9">
-        <v>0.2681475981416099</v>
+        <v>0.3422904922982681</v>
       </c>
       <c r="N9">
-        <v>3.105340874444664</v>
+        <v>1.709601091936648</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.260426420810063</v>
+        <v>2.100634591117398</v>
       </c>
       <c r="C10">
-        <v>0.0899880255726373</v>
+        <v>0.166490003774399</v>
       </c>
       <c r="D10">
-        <v>0.1052812942930927</v>
+        <v>0.2965475926957311</v>
       </c>
       <c r="E10">
-        <v>0.08633506938295454</v>
+        <v>0.04064500816681615</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.100253778939958</v>
+        <v>1.865194848980593</v>
       </c>
       <c r="H10">
-        <v>1.722892998031426</v>
+        <v>1.100479149824139</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.83259631040562</v>
+        <v>1.870337648442188</v>
       </c>
       <c r="L10">
-        <v>0.2054614862379651</v>
+        <v>0.2040444893317357</v>
       </c>
       <c r="M10">
-        <v>0.2819326337891326</v>
+        <v>0.4038286606297277</v>
       </c>
       <c r="N10">
-        <v>3.088246823961711</v>
+        <v>1.678872290654127</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.296249116224203</v>
+        <v>2.254725352321884</v>
       </c>
       <c r="C11">
-        <v>0.09293777976556328</v>
+        <v>0.1762613481687509</v>
       </c>
       <c r="D11">
-        <v>0.1112733680320588</v>
+        <v>0.319517076950163</v>
       </c>
       <c r="E11">
-        <v>0.08630495600524846</v>
+        <v>0.0413688328593711</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.115707617002755</v>
+        <v>1.949855400801653</v>
       </c>
       <c r="H11">
-        <v>1.726662198922895</v>
+        <v>1.134399319314213</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8677068932014436</v>
+        <v>2.013245624582879</v>
       </c>
       <c r="L11">
-        <v>0.2079425903959731</v>
+        <v>0.2165702926561153</v>
       </c>
       <c r="M11">
-        <v>0.2883525281204129</v>
+        <v>0.4324550233637794</v>
       </c>
       <c r="N11">
-        <v>3.081277143772596</v>
+        <v>1.6674637946725</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.309910514950332</v>
+        <v>2.313596341092136</v>
       </c>
       <c r="C12">
-        <v>0.09405031185993096</v>
+        <v>0.179984510587019</v>
       </c>
       <c r="D12">
-        <v>0.1135486423922032</v>
+        <v>0.3282912805022988</v>
       </c>
       <c r="E12">
-        <v>0.08629704030947494</v>
+        <v>0.04165056576929693</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.121701750912564</v>
+        <v>1.98256866323311</v>
       </c>
       <c r="H12">
-        <v>1.728184794927301</v>
+        <v>1.147579644646385</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.88106254120828</v>
+        <v>2.067809468952021</v>
       </c>
       <c r="L12">
-        <v>0.2088964723412232</v>
+        <v>0.2213680121854935</v>
       </c>
       <c r="M12">
-        <v>0.2908050024959792</v>
+        <v>0.4433983014828726</v>
       </c>
       <c r="N12">
-        <v>3.07875400860371</v>
+        <v>1.66354164642074</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.306964015044457</v>
+        <v>2.300893200501832</v>
       </c>
       <c r="C13">
-        <v>0.09381090648082591</v>
+        <v>0.1791815643739483</v>
       </c>
       <c r="D13">
-        <v>0.1130583444559079</v>
+        <v>0.3263980400793685</v>
       </c>
       <c r="E13">
-        <v>0.08629859015148078</v>
+        <v>0.04158954170201667</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.120404482587929</v>
+        <v>1.975493067729133</v>
       </c>
       <c r="H13">
-        <v>1.727852638841654</v>
+        <v>1.144725592514789</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8781834929611705</v>
+        <v>2.056037249334594</v>
       </c>
       <c r="L13">
-        <v>0.2086903992945111</v>
+        <v>0.2203322180765923</v>
       </c>
       <c r="M13">
-        <v>0.2902758669391261</v>
+        <v>0.4410366795045348</v>
       </c>
       <c r="N13">
-        <v>3.079292243344696</v>
+        <v>1.66436816744465</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.297371121940444</v>
+        <v>2.259557890524377</v>
       </c>
       <c r="C14">
-        <v>0.09302939788236131</v>
+        <v>0.1765671678124789</v>
       </c>
       <c r="D14">
-        <v>0.1114604315285419</v>
+        <v>0.3202373482074563</v>
       </c>
       <c r="E14">
-        <v>0.08630423493959682</v>
+        <v>0.04139185520957511</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.116197908526601</v>
+        <v>1.952533231036</v>
       </c>
       <c r="H14">
-        <v>1.726785554187757</v>
+        <v>1.135476765489699</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8688044670737156</v>
+        <v>2.017725291494088</v>
       </c>
       <c r="L14">
-        <v>0.2080207795344364</v>
+        <v>0.2169638776075544</v>
       </c>
       <c r="M14">
-        <v>0.288553865939015</v>
+        <v>0.4333531934784887</v>
       </c>
       <c r="N14">
-        <v>3.081067235549909</v>
+        <v>1.667132967882125</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.291507712462987</v>
+        <v>2.234308564888181</v>
       </c>
       <c r="C15">
-        <v>0.09255011981665007</v>
+        <v>0.1749689039659188</v>
       </c>
       <c r="D15">
-        <v>0.1104824735707979</v>
+        <v>0.3164739814754256</v>
       </c>
       <c r="E15">
-        <v>0.08630814641165152</v>
+        <v>0.041271776179995</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.113639774294455</v>
+        <v>1.938556917914156</v>
       </c>
       <c r="H15">
-        <v>1.72614434270082</v>
+        <v>1.129856228673646</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8630673618649496</v>
+        <v>1.994318275879806</v>
       </c>
       <c r="L15">
-        <v>0.2076124851565453</v>
+        <v>0.2149079442235973</v>
       </c>
       <c r="M15">
-        <v>0.2875018766602224</v>
+        <v>0.428660643088584</v>
       </c>
       <c r="N15">
-        <v>3.082169598067665</v>
+        <v>1.668879210543849</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258098780327884</v>
+        <v>2.090633562243227</v>
       </c>
       <c r="C16">
-        <v>0.08979462331421928</v>
+        <v>0.1658543869854014</v>
       </c>
       <c r="D16">
-        <v>0.1048905636366868</v>
+        <v>0.2950565671731908</v>
       </c>
       <c r="E16">
-        <v>0.08633752597095068</v>
+        <v>0.04059874559751542</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.099263704367104</v>
+        <v>1.859749897932375</v>
       </c>
       <c r="H16">
-        <v>1.722660004762162</v>
+        <v>1.098307625493732</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8303101501222443</v>
+        <v>1.861057559781671</v>
       </c>
       <c r="L16">
-        <v>0.2053013483399155</v>
+        <v>0.2032331973967558</v>
       </c>
       <c r="M16">
-        <v>0.2815160746890086</v>
+        <v>0.4019715992569104</v>
       </c>
       <c r="N16">
-        <v>3.088718551099007</v>
+        <v>1.67967194759855</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.237774807640847</v>
+        <v>2.00334969327605</v>
       </c>
       <c r="C17">
-        <v>0.08809619317341344</v>
+        <v>0.1602989776265673</v>
       </c>
       <c r="D17">
-        <v>0.1014711029877731</v>
+        <v>0.2820421959986703</v>
       </c>
       <c r="E17">
-        <v>0.0863617724375203</v>
+        <v>0.04019892971629169</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.090697259430073</v>
+        <v>1.812497171640388</v>
       </c>
       <c r="H17">
-        <v>1.720692177590195</v>
+        <v>1.07951795789603</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.810321552447391</v>
+        <v>1.780038496468677</v>
       </c>
       <c r="L17">
-        <v>0.2039091084536011</v>
+        <v>0.1961618521484922</v>
       </c>
       <c r="M17">
-        <v>0.2778821244912777</v>
+        <v>0.3857690000712353</v>
       </c>
       <c r="N17">
-        <v>3.092942794939574</v>
+        <v>1.686970589539456</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.226147994305848</v>
+        <v>1.953440685413568</v>
       </c>
       <c r="C18">
-        <v>0.0871163378218256</v>
+        <v>0.157115511621825</v>
       </c>
       <c r="D18">
-        <v>0.09950834263001695</v>
+        <v>0.2745992304072473</v>
       </c>
       <c r="E18">
-        <v>0.08637800870143408</v>
+        <v>0.03997361389507503</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.085862886188579</v>
+        <v>1.785699484051264</v>
       </c>
       <c r="H18">
-        <v>1.719622698388775</v>
+        <v>1.06890851081036</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7988639118628669</v>
+        <v>1.73368872522056</v>
       </c>
       <c r="L18">
-        <v>0.2031177320268682</v>
+        <v>0.1921261360494384</v>
       </c>
       <c r="M18">
-        <v>0.2758059998415874</v>
+        <v>0.3765084203340265</v>
       </c>
       <c r="N18">
-        <v>3.095448369007741</v>
+        <v>1.691408636857389</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.22222217862722</v>
+        <v>1.936591054416652</v>
       </c>
       <c r="C19">
-        <v>0.08678406526284732</v>
+        <v>0.1560395544289861</v>
       </c>
       <c r="D19">
-        <v>0.09884447497131532</v>
+        <v>0.2720861853873089</v>
       </c>
       <c r="E19">
-        <v>0.08638389971079441</v>
+        <v>0.03989810990294806</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.084241984096593</v>
+        <v>1.776689751721307</v>
       </c>
       <c r="H19">
-        <v>1.719271301885954</v>
+        <v>1.065349445764411</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7949912957532774</v>
+        <v>1.71803674895304</v>
       </c>
       <c r="L19">
-        <v>0.2028514012403804</v>
+        <v>0.1907649619700891</v>
       </c>
       <c r="M19">
-        <v>0.275105469794596</v>
+        <v>0.3733826809641414</v>
       </c>
       <c r="N19">
-        <v>3.096309744590968</v>
+        <v>1.692951692918612</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.239931809989685</v>
+        <v>2.012610299343351</v>
       </c>
       <c r="C20">
-        <v>0.08827730030805014</v>
+        <v>0.1608891026339592</v>
       </c>
       <c r="D20">
-        <v>0.1018346936531742</v>
+        <v>0.2834231231210111</v>
       </c>
       <c r="E20">
-        <v>0.08635895439499208</v>
+        <v>0.04024100638313399</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.091599563709281</v>
+        <v>1.817487433809191</v>
       </c>
       <c r="H20">
-        <v>1.720895201780252</v>
+        <v>1.081497461498799</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8124453080608873</v>
+        <v>1.788636801222935</v>
       </c>
       <c r="L20">
-        <v>0.2040563417386352</v>
+        <v>0.1969113053874878</v>
       </c>
       <c r="M20">
-        <v>0.2782675131175907</v>
+        <v>0.3874876318632801</v>
       </c>
       <c r="N20">
-        <v>3.092485260374062</v>
+        <v>1.686168594142728</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.300186179359685</v>
+        <v>2.271684415176935</v>
       </c>
       <c r="C21">
-        <v>0.09325906699849895</v>
+        <v>0.1773344187381838</v>
       </c>
       <c r="D21">
-        <v>0.1119296084189898</v>
+        <v>0.322044740360738</v>
       </c>
       <c r="E21">
-        <v>0.08630248235988525</v>
+        <v>0.04144970918208912</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.117429622538793</v>
+        <v>1.959258782386826</v>
       </c>
       <c r="H21">
-        <v>1.727096396845269</v>
+        <v>1.138184009871424</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8715576848031787</v>
+        <v>2.028965789649163</v>
       </c>
       <c r="L21">
-        <v>0.2082170740344225</v>
+        <v>0.2179517143200371</v>
       </c>
       <c r="M21">
-        <v>0.2890590788122722</v>
+        <v>0.435607118932964</v>
       </c>
       <c r="N21">
-        <v>3.080542724247678</v>
+        <v>1.666309836939988</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.340126112237556</v>
+        <v>2.44407046523844</v>
       </c>
       <c r="C22">
-        <v>0.09648887302802223</v>
+        <v>0.1882186371533123</v>
       </c>
       <c r="D22">
-        <v>0.1185634181833564</v>
+        <v>0.3477355125030499</v>
       </c>
       <c r="E22">
-        <v>0.08628589812550125</v>
+        <v>0.04228443388954162</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.135139460453075</v>
+        <v>2.055762674156</v>
       </c>
       <c r="H22">
-        <v>1.731704614183855</v>
+        <v>1.177203638163547</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9105409711987988</v>
+        <v>2.188676017584186</v>
       </c>
       <c r="L22">
-        <v>0.2110199373043997</v>
+        <v>0.2320233757974961</v>
       </c>
       <c r="M22">
-        <v>0.2962367123270866</v>
+        <v>0.4676634010989815</v>
       </c>
       <c r="N22">
-        <v>3.073414566391079</v>
+        <v>1.655666116853723</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.318758194851512</v>
+        <v>2.351761443967348</v>
       </c>
       <c r="C23">
-        <v>0.09476743428710677</v>
+        <v>0.1823954782793038</v>
       </c>
       <c r="D23">
-        <v>0.1150194986143447</v>
+        <v>0.3339791511297818</v>
       </c>
       <c r="E23">
-        <v>0.08629289329360113</v>
+        <v>0.04183465690224253</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.125611497179676</v>
+        <v>2.003881198111628</v>
       </c>
       <c r="H23">
-        <v>1.729194302085091</v>
+        <v>1.156186963635378</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8897028276914227</v>
+        <v>2.103172811618663</v>
       </c>
       <c r="L23">
-        <v>0.2095163556248849</v>
+        <v>0.2244817040736393</v>
       </c>
       <c r="M23">
-        <v>0.2923944712845525</v>
+        <v>0.4504944564004276</v>
       </c>
       <c r="N23">
-        <v>3.077157001002192</v>
+        <v>1.661123069856302</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.238956449460773</v>
+        <v>2.008422737976389</v>
       </c>
       <c r="C24">
-        <v>0.08819543238527672</v>
+        <v>0.1606222750116331</v>
       </c>
       <c r="D24">
-        <v>0.1016703045613525</v>
+        <v>0.2827986847183439</v>
       </c>
       <c r="E24">
-        <v>0.08636022127760157</v>
+        <v>0.0402219694058239</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.091191349771947</v>
+        <v>1.815230193276079</v>
       </c>
       <c r="H24">
-        <v>1.720803221867158</v>
+        <v>1.08060192906683</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.811485052027308</v>
+        <v>1.784748798261774</v>
       </c>
       <c r="L24">
-        <v>0.2039897494087342</v>
+        <v>0.1965723855126953</v>
       </c>
       <c r="M24">
-        <v>0.2780932381696033</v>
+        <v>0.3867104695481203</v>
       </c>
       <c r="N24">
-        <v>3.092691871886259</v>
+        <v>1.686530424721639</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.155286023230559</v>
+        <v>1.649118935145282</v>
       </c>
       <c r="C25">
-        <v>0.08099295898439607</v>
+        <v>0.1375755086476005</v>
       </c>
       <c r="D25">
-        <v>0.08742456461254733</v>
+        <v>0.2291856901289435</v>
       </c>
       <c r="E25">
-        <v>0.08652045156509658</v>
+        <v>0.0386584821081275</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.0576110487454</v>
+        <v>1.626083648021222</v>
       </c>
       <c r="H25">
-        <v>1.714136268085753</v>
+        <v>1.006537405341106</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7286155253617608</v>
+        <v>1.45064882131561</v>
       </c>
       <c r="L25">
-        <v>0.1983879738994361</v>
+        <v>0.1676542840057138</v>
       </c>
       <c r="M25">
-        <v>0.2632033908119524</v>
+        <v>0.3201141096239084</v>
       </c>
       <c r="N25">
-        <v>3.112349983198328</v>
+        <v>1.723022062943656</v>
       </c>
       <c r="O25">
         <v>0</v>
